--- a/diffusion_regression_models.xlsx
+++ b/diffusion_regression_models.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattia/Desktop/Bachelor Thesis/code/bachelor_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5126EA3B-AC3C-7E48-9700-69D5F45803DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C084D3-F3AB-E641-A697-41C156EC9D0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B6393BAF-AC82-0044-9DA9-F3C862D356AE}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{B6393BAF-AC82-0044-9DA9-F3C862D356AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="41">
   <si>
     <t>Nodes</t>
   </si>
@@ -154,6 +155,9 @@
   </si>
   <si>
     <t>✓"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -312,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -381,6 +385,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -695,10 +702,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792411AE-B273-B94C-8613-A9F7B39D1564}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="57" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A24" sqref="A24"/>
+      <selection pane="topRight" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1637,160 +1646,927 @@
       <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D32" s="29"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D33" s="29"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D34" s="29"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D35" s="29"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D36" s="29"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D37" s="29"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D38" s="29"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D39" s="29"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D40" s="29"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D41" s="29"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D42" s="29"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D43" s="29"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D44" s="29"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D45" s="29"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D46" s="29"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D47" s="29"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D48" s="29"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D49" s="29"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D50" s="29"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D51" s="29"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D52" s="29"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D53" s="29"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D54" s="29"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D55" s="29"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.93507260000000003</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.92926169999999997</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.92915150000000002</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.93338790000000005</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.93447950000000002</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.93456309999999998</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.9343245</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.93441980000000002</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.92790790000000001</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.9283361</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.92618350000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
